--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H2">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.05191762649466666</v>
+        <v>2.61042992911</v>
       </c>
       <c r="R2">
-        <v>0.4672586384519999</v>
+        <v>23.49386936199</v>
       </c>
       <c r="S2">
-        <v>0.003399851708660454</v>
+        <v>0.109690319935158</v>
       </c>
       <c r="T2">
-        <v>0.003399851708660454</v>
+        <v>0.109690319935158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H3">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
-        <v>1.568780110942222</v>
+        <v>2.462690192133334</v>
       </c>
       <c r="R3">
-        <v>14.11902099848</v>
+        <v>22.1642117292</v>
       </c>
       <c r="S3">
-        <v>0.1027323493158409</v>
+        <v>0.1034822931134491</v>
       </c>
       <c r="T3">
-        <v>0.1027323493158409</v>
+        <v>0.1034822931134491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H4">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.3489156505877777</v>
+        <v>0.4824109501866667</v>
       </c>
       <c r="R4">
-        <v>3.14024085529</v>
+        <v>4.34169855168</v>
       </c>
       <c r="S4">
-        <v>0.02284891569438544</v>
+        <v>0.02027091816413558</v>
       </c>
       <c r="T4">
-        <v>0.02284891569438544</v>
+        <v>0.02027091816413558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.406520666666666</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H5">
-        <v>13.219562</v>
+        <v>23.411895</v>
       </c>
       <c r="I5">
-        <v>0.1641109939536627</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J5">
-        <v>0.1641109939536627</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>0.5364527636404444</v>
+        <v>2.944990076014999</v>
       </c>
       <c r="R5">
-        <v>4.828074872764</v>
+        <v>26.50491068413499</v>
       </c>
       <c r="S5">
-        <v>0.03512987723477588</v>
+        <v>0.1237485442691376</v>
       </c>
       <c r="T5">
-        <v>0.03512987723477589</v>
+        <v>0.1237485442691376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>23.411895</v>
       </c>
       <c r="I6">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J6">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>0.09194631562999998</v>
+        <v>2.778315592866667</v>
       </c>
       <c r="R6">
-        <v>0.8275168406699999</v>
+        <v>25.0048403358</v>
       </c>
       <c r="S6">
-        <v>0.006021150414720937</v>
+        <v>0.1167448790193291</v>
       </c>
       <c r="T6">
-        <v>0.006021150414720938</v>
+        <v>0.1167448790193291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>23.411895</v>
       </c>
       <c r="I7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>2.778315592866666</v>
+        <v>0.5442381138133333</v>
       </c>
       <c r="R7">
-        <v>25.00484033579999</v>
+        <v>4.898143024319999</v>
       </c>
       <c r="S7">
-        <v>0.1819393846245275</v>
+        <v>0.02286889686613607</v>
       </c>
       <c r="T7">
-        <v>0.1819393846245276</v>
+        <v>0.02286889686613606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.803964999999999</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H8">
-        <v>23.411895</v>
+        <v>19.29203</v>
       </c>
       <c r="I8">
-        <v>0.290641199669761</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J8">
-        <v>0.290641199669761</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07918166666666666</v>
+        <v>0.377371</v>
       </c>
       <c r="N8">
-        <v>0.237545</v>
+        <v>1.132113</v>
       </c>
       <c r="O8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q8">
-        <v>0.6179309553083332</v>
+        <v>2.426750884376666</v>
       </c>
       <c r="R8">
-        <v>5.561378597775</v>
+        <v>21.84075795939</v>
       </c>
       <c r="S8">
-        <v>0.04046551732204168</v>
+        <v>0.1019721226537421</v>
       </c>
       <c r="T8">
-        <v>0.04046551732204168</v>
+        <v>0.1019721226537421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.803964999999999</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H9">
-        <v>23.411895</v>
+        <v>19.29203</v>
       </c>
       <c r="I9">
-        <v>0.290641199669761</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J9">
-        <v>0.290641199669761</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1217406666666667</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N9">
-        <v>0.365222</v>
+        <v>1.06804</v>
       </c>
       <c r="O9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q9">
-        <v>0.9500599017433332</v>
+        <v>2.289406635688889</v>
       </c>
       <c r="R9">
-        <v>8.550539115689999</v>
+        <v>20.6046597212</v>
       </c>
       <c r="S9">
-        <v>0.06221514730847084</v>
+        <v>0.09620091446622618</v>
       </c>
       <c r="T9">
-        <v>0.06221514730847084</v>
+        <v>0.09620091446622618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H10">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I10">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J10">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.011782</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N10">
-        <v>0.035346</v>
+        <v>0.209216</v>
       </c>
       <c r="O10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q10">
-        <v>0.06249787034933332</v>
+        <v>0.4484668164977778</v>
       </c>
       <c r="R10">
-        <v>0.5624808331439999</v>
+        <v>4.036201348480001</v>
       </c>
       <c r="S10">
-        <v>0.004092704263293859</v>
+        <v>0.01884458496026926</v>
       </c>
       <c r="T10">
-        <v>0.00409270426329386</v>
+        <v>0.01884458496026926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.304521333333333</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H11">
-        <v>15.913564</v>
+        <v>12.432724</v>
       </c>
       <c r="I11">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J11">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3560133333333333</v>
+        <v>0.377371</v>
       </c>
       <c r="N11">
-        <v>1.06804</v>
+        <v>1.132113</v>
       </c>
       <c r="O11">
-        <v>0.6259930967504086</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P11">
-        <v>0.6259930967504087</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q11">
-        <v>1.888480321617777</v>
+        <v>1.563916496201333</v>
       </c>
       <c r="R11">
-        <v>16.99632289456</v>
+        <v>14.075248465812</v>
       </c>
       <c r="S11">
-        <v>0.1236680773317596</v>
+        <v>0.06571580371003587</v>
       </c>
       <c r="T11">
-        <v>0.1236680773317596</v>
+        <v>0.06571580371003585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.304521333333333</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H12">
-        <v>15.913564</v>
+        <v>12.432724</v>
       </c>
       <c r="I12">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J12">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07918166666666666</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.237545</v>
+        <v>1.06804</v>
       </c>
       <c r="O12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q12">
-        <v>0.4200208400422222</v>
+        <v>1.475405171217778</v>
       </c>
       <c r="R12">
-        <v>3.78018756038</v>
+        <v>13.27864654096</v>
       </c>
       <c r="S12">
-        <v>0.02750527454942963</v>
+        <v>0.06199655599261444</v>
       </c>
       <c r="T12">
-        <v>0.02750527454942964</v>
+        <v>0.06199655599261444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.304521333333333</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H13">
-        <v>15.913564</v>
+        <v>12.432724</v>
       </c>
       <c r="I13">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J13">
-        <v>0.1975550177369889</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1217406666666667</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N13">
-        <v>0.365222</v>
+        <v>0.209216</v>
       </c>
       <c r="O13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q13">
-        <v>0.6457759634675555</v>
+        <v>0.2890138649315556</v>
       </c>
       <c r="R13">
-        <v>5.811983671208</v>
+        <v>2.601124784384</v>
       </c>
       <c r="S13">
-        <v>0.04228896159250579</v>
+        <v>0.01214436861779598</v>
       </c>
       <c r="T13">
-        <v>0.0422889615925058</v>
+        <v>0.01214436861779598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.830591666666667</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H14">
-        <v>11.491775</v>
+        <v>13.007266</v>
       </c>
       <c r="I14">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J14">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N14">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q14">
-        <v>0.04513203101666666</v>
+        <v>1.636188325895333</v>
       </c>
       <c r="R14">
-        <v>0.4061882791499999</v>
+        <v>14.725694933058</v>
       </c>
       <c r="S14">
-        <v>0.002955493598750964</v>
+        <v>0.06875266749750285</v>
       </c>
       <c r="T14">
-        <v>0.002955493598750965</v>
+        <v>0.06875266749750282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.830591666666667</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H15">
-        <v>11.491775</v>
+        <v>13.007266</v>
       </c>
       <c r="I15">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J15">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>1.06804</v>
       </c>
       <c r="O15">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P15">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q15">
-        <v>1.363741707888889</v>
+        <v>1.543586708737778</v>
       </c>
       <c r="R15">
-        <v>12.273675371</v>
+        <v>13.89228037864</v>
       </c>
       <c r="S15">
-        <v>0.08930530705624343</v>
+        <v>0.0648615456178252</v>
       </c>
       <c r="T15">
-        <v>0.08930530705624344</v>
+        <v>0.06486154561782519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.830591666666667</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H16">
-        <v>11.491775</v>
+        <v>13.007266</v>
       </c>
       <c r="I16">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J16">
-        <v>0.1426618081250992</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N16">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q16">
-        <v>0.3033126324861111</v>
+        <v>0.3023697959395557</v>
       </c>
       <c r="R16">
-        <v>2.729813692375</v>
+        <v>2.721328163456</v>
       </c>
       <c r="S16">
-        <v>0.01986257927107163</v>
+        <v>0.01270558511664256</v>
       </c>
       <c r="T16">
-        <v>0.01986257927107164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.830591666666667</v>
-      </c>
-      <c r="H17">
-        <v>11.491775</v>
-      </c>
-      <c r="I17">
-        <v>0.1426618081250992</v>
-      </c>
-      <c r="J17">
-        <v>0.1426618081250992</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.365222</v>
-      </c>
-      <c r="O17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q17">
-        <v>0.4663387832277778</v>
-      </c>
-      <c r="R17">
-        <v>4.19704904905</v>
-      </c>
-      <c r="S17">
-        <v>0.03053842819903312</v>
-      </c>
-      <c r="T17">
-        <v>0.03053842819903313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.505257333333333</v>
-      </c>
-      <c r="H18">
-        <v>16.515772</v>
-      </c>
-      <c r="I18">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="J18">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.011782</v>
-      </c>
-      <c r="N18">
-        <v>0.035346</v>
-      </c>
-      <c r="O18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="P18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="Q18">
-        <v>0.06486294190133332</v>
-      </c>
-      <c r="R18">
-        <v>0.5837664771119999</v>
-      </c>
-      <c r="S18">
-        <v>0.004247582155448605</v>
-      </c>
-      <c r="T18">
-        <v>0.004247582155448606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.505257333333333</v>
-      </c>
-      <c r="H19">
-        <v>16.515772</v>
-      </c>
-      <c r="I19">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="J19">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.3560133333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.06804</v>
-      </c>
-      <c r="O19">
-        <v>0.6259930967504086</v>
-      </c>
-      <c r="P19">
-        <v>0.6259930967504087</v>
-      </c>
-      <c r="Q19">
-        <v>1.959945014097777</v>
-      </c>
-      <c r="R19">
-        <v>17.63950512688</v>
-      </c>
-      <c r="S19">
-        <v>0.1283479784220373</v>
-      </c>
-      <c r="T19">
-        <v>0.1283479784220373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.505257333333333</v>
-      </c>
-      <c r="H20">
-        <v>16.515772</v>
-      </c>
-      <c r="I20">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="J20">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07918166666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237545</v>
-      </c>
-      <c r="O20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="P20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="Q20">
-        <v>0.4359154510822222</v>
-      </c>
-      <c r="R20">
-        <v>3.92323905974</v>
-      </c>
-      <c r="S20">
-        <v>0.02854614109421262</v>
-      </c>
-      <c r="T20">
-        <v>0.02854614109421262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.505257333333333</v>
-      </c>
-      <c r="H21">
-        <v>16.515772</v>
-      </c>
-      <c r="I21">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="J21">
-        <v>0.2050309805144884</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.365222</v>
-      </c>
-      <c r="O21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q21">
-        <v>0.6702136979315555</v>
-      </c>
-      <c r="R21">
-        <v>6.031923281384</v>
-      </c>
-      <c r="S21">
-        <v>0.04388927884278987</v>
-      </c>
-      <c r="T21">
-        <v>0.04388927884278988</v>
+        <v>0.01270558511664256</v>
       </c>
     </row>
   </sheetData>
